--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fielduser\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F315D3-E3AA-41E2-8BF3-5CFCDDAEE278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FBAC02-E9C3-4906-A985-CC1786A4C581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>CAPID</t>
   </si>
@@ -34,22 +34,31 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Alpha Flight</t>
-  </si>
-  <si>
     <t>Flight Commander</t>
   </si>
   <si>
     <t>Basic Cadet</t>
   </si>
   <si>
-    <t>Bravo Flight</t>
-  </si>
-  <si>
     <t>Bravo</t>
   </si>
   <si>
     <t>ATS Cadet</t>
+  </si>
+  <si>
+    <t>Squadron Assignment</t>
+  </si>
+  <si>
+    <t>Squadron 1</t>
+  </si>
+  <si>
+    <t>Squadron 2</t>
+  </si>
+  <si>
+    <t>Squadron 3</t>
+  </si>
+  <si>
+    <t>Squadron 4</t>
   </si>
 </sst>
 </file>
@@ -73,33 +82,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,29 +119,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,91 +432,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>589351</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>589351</v>
+        <v>642624</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>642624</v>
+        <v>111111</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>222222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>111111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>222222</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:C5"/>
-  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>